--- a/Investments.xlsx
+++ b/Investments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spasha\Documents\Masters\Upgrad\Assignments\Assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E077A69D-0C82-4D85-9D65-3BF21F0574EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9CD3E7-FDC7-4F8E-9453-89B41E7D6F25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Table-3.1" sheetId="5" r:id="rId3"/>
     <sheet name="Table-5.1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>C1</t>
   </si>
@@ -375,9 +375,6 @@
     <t>GBR</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
     <t>Others</t>
   </si>
   <si>
@@ -387,28 +384,25 @@
     <t>Social, Finance, Analytics, Advertising</t>
   </si>
   <si>
-    <t>News, Search and Messaging</t>
-  </si>
-  <si>
-    <t>Entertainment</t>
-  </si>
-  <si>
-    <t>1stdibs</t>
-  </si>
-  <si>
-    <t>Sunverge Energy, Inc</t>
-  </si>
-  <si>
-    <t>Tribold</t>
-  </si>
-  <si>
-    <t>Elixent</t>
-  </si>
-  <si>
-    <t>ItzCash Card Ltd.</t>
-  </si>
-  <si>
-    <t>Mobile2Win India</t>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>Infineta Systems</t>
+  </si>
+  <si>
+    <t>Stockpile</t>
+  </si>
+  <si>
+    <t>SilverRail Technologies</t>
+  </si>
+  <si>
+    <t>EnvironmentIQ</t>
+  </si>
+  <si>
+    <t>Diablo Technologies</t>
+  </si>
+  <si>
+    <t>Zymeworks</t>
   </si>
 </sst>
 </file>
@@ -693,6 +687,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -725,9 +722,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1046,7 +1040,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1057,23 +1051,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
@@ -1094,7 +1088,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="17">
-        <v>90247</v>
+        <v>66370</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1172,7 +1166,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1183,21 +1177,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="28"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
@@ -1217,8 +1211,8 @@
       <c r="B5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="36">
-        <v>11724222.689999999</v>
+      <c r="C5" s="25">
+        <v>6715881.0700000003</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1228,8 +1222,8 @@
       <c r="B6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="36">
-        <v>971573.89</v>
+      <c r="C6" s="25">
+        <v>781842.2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1239,8 +1233,8 @@
       <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="36">
-        <v>747793.68</v>
+      <c r="C7" s="25">
+        <v>769750.2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1250,8 +1244,8 @@
       <c r="B8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="36">
-        <v>73938486.280000001</v>
+      <c r="C8" s="25">
+        <v>35422162.75</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1301,21 +1295,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="28"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9" t="s">
@@ -1358,7 +1352,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1386,7 +1380,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1397,23 +1391,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="22" t="s">
@@ -1440,13 +1434,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="17">
-        <v>11149</v>
+        <v>11912</v>
       </c>
       <c r="D5" s="17">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E5" s="17">
-        <v>299</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1457,13 +1451,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="17">
-        <v>99661524549</v>
+        <v>106354355599</v>
       </c>
       <c r="D6" s="17">
-        <v>5028704358</v>
+        <v>5086469206</v>
       </c>
       <c r="E6" s="17">
-        <v>2683537552</v>
+        <v>3422009576</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1474,10 +1468,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>46</v>
@@ -1491,13 +1485,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1508,13 +1502,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1525,13 +1519,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="17">
-        <v>2923</v>
+        <v>3063</v>
       </c>
       <c r="D10" s="17">
         <v>143</v>
       </c>
       <c r="E10" s="17">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1542,13 +1536,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="17">
-        <v>2297</v>
+        <v>2548</v>
       </c>
       <c r="D11" s="17">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E11" s="17">
-        <v>52</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1559,13 +1553,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="17">
-        <v>1912</v>
+        <v>2008</v>
       </c>
       <c r="D12" s="17">
         <v>98</v>
       </c>
       <c r="E12" s="17">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1576,13 +1570,13 @@
         <v>13</v>
       </c>
       <c r="C13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="17" t="s">
         <v>53</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
@@ -1593,13 +1587,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="E14" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Investments.xlsx
+++ b/Investments.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spasha\Documents\Masters\Upgrad\Assignments\Assignment_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spasha\Documents\Masters\Upgrad\Assignments\spark_funds_data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9CD3E7-FDC7-4F8E-9453-89B41E7D6F25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13C8A9F-6173-468A-A497-1DC57524349F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,22 +387,22 @@
     <t>CAN</t>
   </si>
   <si>
-    <t>Infineta Systems</t>
-  </si>
-  <si>
-    <t>Stockpile</t>
-  </si>
-  <si>
-    <t>SilverRail Technologies</t>
-  </si>
-  <si>
-    <t>EnvironmentIQ</t>
+    <t>Zymeworks</t>
+  </si>
+  <si>
+    <t>1stdibs</t>
+  </si>
+  <si>
+    <t>Tribold</t>
+  </si>
+  <si>
+    <t>SenSage</t>
+  </si>
+  <si>
+    <t>LE TOTE</t>
   </si>
   <si>
     <t>Diablo Technologies</t>
-  </si>
-  <si>
-    <t>Zymeworks</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1166,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1212,7 +1212,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="25">
-        <v>6715881.0700000003</v>
+        <v>7609093.0300000003</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1223,7 +1223,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="25">
-        <v>781842.2</v>
+        <v>564802.81000000006</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1234,7 +1234,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="25">
-        <v>769750.2</v>
+        <v>520533.95</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1245,7 +1245,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="25">
-        <v>35422162.75</v>
+        <v>43614888.520000003</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1380,7 +1380,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1570,13 +1570,13 @@
         <v>13</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
@@ -1587,13 +1587,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
